--- a/assets/disciplinas/LOT2052.xlsx
+++ b/assets/disciplinas/LOT2052.xlsx
@@ -136,11 +136,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOT2038 -  Tecnologia de Bebidas  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOT2028 -  Tecnologia de Processos Fermentativos  (Requisito fraco)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOT2038 -  Tecnologia de Bebidas  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOT2052.xlsx
+++ b/assets/disciplinas/LOT2052.xlsx
@@ -136,11 +136,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOT2028 -  Tecnologia de Processos Fermentativos  (Requisito fraco)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOT2038 -  Tecnologia de Bebidas  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOT2028 -  Tecnologia de Processos Fermentativos  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOT2052.xlsx
+++ b/assets/disciplinas/LOT2052.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar ao estudante conhecimentos práticos nos processos tecnológicos de preparação de bebidas fermentadas e destiladas.</t>
+    <t>1097178 - João Batista de Almeida e Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1097178 - João Batista de Almeida e Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Elaboração prática de cerveja, cachaça, fermentados e destilados de frutas, cereais e tuberculos, vinhos e análise sensorial.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Elaboração de cerveja: matérias-primas, preparação do mosto, tecnologia de fermentação e maturação.2. Elaboração de aguardente: matérias-primas, preparação do mosto, tecnologia de fermentação, destilação, maturação.3. Elaboração de destilados de frutas: matérias-primas, preparação do mosto, tecnologia de fermentação, destilação, maturação.4. Elaboração e vinhos: matérias-primas, preparação do mosto, tecnologia de fermentação, maturação.5. Análise sensorial: teste sensorial das bebidas preparadas nos itens anteriores</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Relatórios e seminários sobre os experimentos</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética entre os relatórios e seminários</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de prova escrita (PR) e a média final (MF) será calculada pela equação: MF = (NF + PR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. AQUARONE, E.; BORZANI, W.; SCHMIDELL, W.; LIMA, U. A. Biotecnologia na Produção deAlimentos. V. 4, Biotecnologia Industrial, São Paulo: Edgard Blücher Ltda. 2001.4. DUVAL, G. Fabricação de Vinhos de Frutas. S.I.A.RJ:Ministério da Agricultura, 1947.5. HOUGH, J.S. Biotecnología de La cerveza y de la malta. Editorial ACRIBA S/A, 1978.6. LIMA, U. A. Aguardente: fabricação em pequenas destilarias. Ed. FEALQ. 1999.7. MARTINELLI FILHO, A. Tecnologia de Vinhos e Vinagres de Frutas. Agroindústria de BaixoInvestimento. Departamento de Tecnologia Rural da ESALQ/USP.8. MORRETO, E. et al. Vinhos e Vinagres: Processamento e Análises. FlorianópolisEditoraUFSC, 1988.9. PACHECO, A. O. Manual do Bar. São Paulo. Editora SENAC, 1996.10. STANIER, R. Y.; INGRAHAM, J. L., WHEELIS, M. L.; PAINTER, P. R. The Microbial World.Englewood Cliffs, New Jersey, 1986.11.Venturini Filho, W.G. Bebidas Alcoólicas. Ciência e Tecnologia. São Paulo. Edgar Blucher Ltda. 2a. Edição. 2016. 575 p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -497,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,34 +613,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -663,85 +657,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2052.xlsx
+++ b/assets/disciplinas/LOT2052.xlsx
@@ -127,11 +127,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOT2038 -  Tecnologia de Bebidas  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOT2028 -  Tecnologia de Processos Fermentativos  (Requisito fraco)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOT2038 -  Tecnologia de Bebidas  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOT2052.xlsx
+++ b/assets/disciplinas/LOT2052.xlsx
@@ -127,11 +127,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOT2028 -  Tecnologia de Processos Fermentativos  (Requisito fraco)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOT2038 -  Tecnologia de Bebidas  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOT2028 -  Tecnologia de Processos Fermentativos  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOT2052.xlsx
+++ b/assets/disciplinas/LOT2052.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar ao estudante conhecimentos práticos nos processos tecnológicos de preparação de bebidas fermentadas e destiladas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1097178 - João Batista de Almeida e Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Elaboração prática de cerveja, cachaça, fermentados e destilados de frutas, cereais e tuberculos, vinhos e análise sensorial.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Elaboração de cerveja: matérias-primas, preparação do mosto, tecnologia de fermentação e maturação.2. Elaboração de aguardente: matérias-primas, preparação do mosto, tecnologia de fermentação, destilação, maturação.3. Elaboração de destilados de frutas: matérias-primas, preparação do mosto, tecnologia de fermentação, destilação, maturação.4. Elaboração e vinhos: matérias-primas, preparação do mosto, tecnologia de fermentação, maturação.5. Análise sensorial: teste sensorial das bebidas preparadas nos itens anteriores</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Relatórios e seminários sobre os experimentos</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Relatórios e seminários sobre os experimentos</t>
+    <t>Média aritmética entre os relatórios e seminários</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética entre os relatórios e seminários</t>
+    <t>A recuperação será feita por meio de prova escrita (PR) e a média final (MF) será calculada pela equação: MF = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de prova escrita (PR) e a média final (MF) será calculada pela equação: MF = (NF + PR)/2.</t>
+    <t>1. AQUARONE, E.; BORZANI, W.; SCHMIDELL, W.; LIMA, U. A. Biotecnologia na Produção deAlimentos. V. 4, Biotecnologia Industrial, São Paulo: Edgard Blücher Ltda. 2001.4. DUVAL, G. Fabricação de Vinhos de Frutas. S.I.A.RJ:Ministério da Agricultura, 1947.5. HOUGH, J.S. Biotecnología de La cerveza y de la malta. Editorial ACRIBA S/A, 1978.6. LIMA, U. A. Aguardente: fabricação em pequenas destilarias. Ed. FEALQ. 1999.7. MARTINELLI FILHO, A. Tecnologia de Vinhos e Vinagres de Frutas. Agroindústria de BaixoInvestimento. Departamento de Tecnologia Rural da ESALQ/USP.8. MORRETO, E. et al. Vinhos e Vinagres: Processamento e Análises. FlorianópolisEditoraUFSC, 1988.9. PACHECO, A. O. Manual do Bar. São Paulo. Editora SENAC, 1996.10. STANIER, R. Y.; INGRAHAM, J. L., WHEELIS, M. L.; PAINTER, P. R. The Microbial World.Englewood Cliffs, New Jersey, 1986.11.Venturini Filho, W.G. Bebidas Alcoólicas. Ciência e Tecnologia. São Paulo. Edgar Blucher Ltda. 2a. Edição. 2016. 575 p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -488,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -613,37 +622,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -657,74 +663,85 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
